--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_10_4.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_10_4.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_24</t>
+          <t>model_10_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999998956540867</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6346438636513947</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999791629169406</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999991569552271</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999967726875399</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G2" t="n">
-        <v>6.194424164615331e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2168911850998374</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I2" t="n">
-        <v>3.117238491835701e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J2" t="n">
-        <v>7.342711077865836e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K2" t="n">
-        <v>1.925661980727505e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001852529617510754</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0007870466418590026</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000000556511538</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0008205528468140915</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P2" t="n">
-        <v>166.5888921836669</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.6913240995727</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_23</t>
+          <t>model_10_4_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999989720462912</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6346426743441774</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999795079629682</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999991691836179</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999968247124122</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G3" t="n">
-        <v>6.102377268728962e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2168918911239769</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I3" t="n">
-        <v>3.065619426164314e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J3" t="n">
-        <v>7.236204824095854e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K3" t="n">
-        <v>1.89461995428695e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001866325874887166</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0007811771418013306</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000000548241978</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008144334699874243</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P3" t="n">
-        <v>166.6188344790272</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q3" t="n">
-        <v>250.7212663949331</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_22</t>
+          <t>model_10_4_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999989882136805</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.63464139947258</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999979873602171</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999991818224506</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999968797739986</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G4" t="n">
-        <v>6.006400661563057e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2168926479428287</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I4" t="n">
-        <v>3.010919610742919e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J4" t="n">
-        <v>7.126123722292708e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K4" t="n">
-        <v>1.861765991486095e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001882033009639526</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007750097200398881</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00000053961937</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0008080034883132741</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P4" t="n">
-        <v>166.6505399468105</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q4" t="n">
-        <v>250.7529718627164</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_21</t>
+          <t>model_10_4_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999990059133961</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6346400468936619</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999802791453998</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999991957477821</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999969407769701</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G5" t="n">
-        <v>5.901327504083779e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2168934508921029</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I5" t="n">
-        <v>2.950250132240214e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J5" t="n">
-        <v>7.004837536427793e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K5" t="n">
-        <v>1.825366942941497e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001898975752400682</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0007682009830821475</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000000530179522</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0008009048893272139</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P5" t="n">
-        <v>166.6858366493267</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7882685652325</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_20</t>
+          <t>model_10_4_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999990251307863</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6346383852689599</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999807319151761</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999992100037173</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999970079416239</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G6" t="n">
-        <v>5.787244774141154e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2168944373043044</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I6" t="n">
-        <v>2.882515537581237e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J6" t="n">
-        <v>6.88067187286138e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K6" t="n">
-        <v>1.785291362433688e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001919286752132452</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0007607394280659544</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000000519930247</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0007931256804664333</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P6" t="n">
-        <v>166.7248786640376</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q6" t="n">
-        <v>250.8273105799435</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_19</t>
+          <t>model_10_4_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999999045173338</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6346365999711121</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999812103307971</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999992257042699</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999970793756402</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G7" t="n">
-        <v>5.668263529340869e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2168954971342278</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I7" t="n">
-        <v>2.810944311191759e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J7" t="n">
-        <v>6.743923949783273e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K7" t="n">
-        <v>1.742668353085043e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001940788903299755</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0007528787106394275</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000000509240886</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000784930316025131</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P7" t="n">
-        <v>166.7664256719455</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.8688575878513</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_18</t>
+          <t>model_10_4_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999990666232158</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6346345634927341</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999817375019342</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999992420451969</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999971573891001</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G8" t="n">
-        <v>5.540927789046271e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2168967060757642</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I8" t="n">
-        <v>2.732079234189348e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J8" t="n">
-        <v>6.601598524728051e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K8" t="n">
-        <v>1.696119543331076e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001965325187568577</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0007443740853258038</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000000497800952</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0007760636312049048</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P8" t="n">
-        <v>166.8118673865477</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.9142993024535</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_17</t>
+          <t>model_10_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999990893256885</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6346323691727784</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999823080315587</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999992598829288</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999972419304947</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G9" t="n">
-        <v>5.406156103819258e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2168980087188796</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I9" t="n">
-        <v>2.646727704823202e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J9" t="n">
-        <v>6.446236299598112e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K9" t="n">
-        <v>1.645675667391507e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001991580264231447</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0007352656733330652</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000000485692966</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0007665674552566232</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P9" t="n">
-        <v>166.8611146549815</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.9635465708874</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_16</t>
+          <t>model_10_4_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999991132620972</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6346299482642263</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999829322284094</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999992781298614</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999973333603416</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G10" t="n">
-        <v>5.264059241554789e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2168994458747739</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I10" t="n">
-        <v>2.553347530473157e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J10" t="n">
-        <v>6.287310038260598e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K10" t="n">
-        <v>1.591121612833321e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002021395407011597</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0007255383684929963</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000000472926881</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0007564260389112155</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P10" t="n">
-        <v>166.9143864058078</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q10" t="n">
-        <v>251.0168183217136</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_15</t>
+          <t>model_10_4_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999991377035984</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6346272377093648</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999835988916376</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999992966809325</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999974307464526</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G11" t="n">
-        <v>5.118963932852219e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2169010549772296</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45361436388538e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J11" t="n">
-        <v>6.125734806446089e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K11" t="n">
-        <v>1.533013594522651e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002053971573009717</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0007154693517441693</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000000459891414</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0007459283632736529</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P11" t="n">
-        <v>166.9702871784972</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.0727190944031</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_14</t>
+          <t>model_10_4_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999991625868749</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6346242784196208</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999843139531169</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999999315588142</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999975340525115</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G12" t="n">
-        <v>4.971246053740318e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2169028117394563</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I12" t="n">
-        <v>2.34664079367493e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J12" t="n">
-        <v>5.961057695197365e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K12" t="n">
-        <v>1.471373281597334e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002090137078269962</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0007050706385703717</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000000446620333</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0007350869553517431</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P12" t="n">
-        <v>167.0288502544705</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.1312821703764</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_13</t>
+          <t>model_10_4_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999991879247155</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6346209426027858</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999850885398802</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999993347745787</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999976451591678</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G13" t="n">
-        <v>4.820829686516478e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2169047920244293</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I13" t="n">
-        <v>2.230762209963002e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J13" t="n">
-        <v>5.793948586490035e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K13" t="n">
-        <v>1.405078534306003e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002131066455386702</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0006943219488476853</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000000433106818</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0007238806716547068</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P13" t="n">
-        <v>167.0902992071543</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q13" t="n">
-        <v>251.1927311230601</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999992124184843</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6346171872346742</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999859084568047</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999999352861647</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999977611461</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G14" t="n">
-        <v>4.675424094212864e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2169070213731638</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I14" t="n">
-        <v>2.108102210485788e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J14" t="n">
-        <v>5.636414703307959e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K14" t="n">
-        <v>1.335871840408292e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002176797184547022</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0006837707286958739</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000420043475</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0007128802642169959</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P14" t="n">
-        <v>167.1515515539848</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.2539834698906</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_11</t>
+          <t>model_10_4_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999992356756426</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6346131336519961</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999867785374567</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999993698626281</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999978826289442</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G15" t="n">
-        <v>4.537359556147753e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2169094277549472</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I15" t="n">
-        <v>1.977937691216541e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J15" t="n">
-        <v>5.488340370536897e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K15" t="n">
-        <v>1.263385864135116e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002227137938044995</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0006735992544642366</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000000407639657</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0007022757692694634</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P15" t="n">
-        <v>167.2115008073191</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q15" t="n">
-        <v>251.3139327232249</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_10</t>
+          <t>model_10_4_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999992562304827</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6346085703467189</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999876837379428</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999993851465718</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999980072612736</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G16" t="n">
-        <v>4.415337146565296e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2169121367300842</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I16" t="n">
-        <v>1.84251922645081e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J16" t="n">
-        <v>5.355221007249053e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K16" t="n">
-        <v>1.189020663587858e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002282403932869433</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0006644800333016256</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000000396677076</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00069276832398257</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P16" t="n">
-        <v>167.26602291186</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q16" t="n">
-        <v>251.3684548277659</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_9</t>
+          <t>model_10_4_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999992726163972</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6346032993570994</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999886252801288</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999993959053853</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999981331467616</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3180632792793e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2169152658172174</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I17" t="n">
-        <v>1.70166402442876e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J17" t="n">
-        <v>5.261514408279472e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K17" t="n">
-        <v>1.113907732628354e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002345110731270531</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0006571197211527972</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000000387937922</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0006850946681076193</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P17" t="n">
-        <v>167.3105773284143</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.4130092443201</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_8</t>
+          <t>model_10_4_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999992833588087</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6345975769984491</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999895914671982</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999994027302617</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999982592505635</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G18" t="n">
-        <v>4.254291684345922e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2169186628565052</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I18" t="n">
-        <v>1.557121934992631e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J18" t="n">
-        <v>5.202071425981795e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K18" t="n">
-        <v>1.038664538795405e-06</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002413951758558689</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0006522493146294538</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000000382208635</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0006800169182954458</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P18" t="n">
-        <v>167.3403347389076</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q18" t="n">
-        <v>251.4427666548135</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_7</t>
+          <t>model_10_4_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999992855275447</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6345911273647873</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999905597613595</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999994015869803</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999983798029114</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G19" t="n">
-        <v>4.241417130828165e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2169224916376565</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I19" t="n">
-        <v>1.412264623511195e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J19" t="n">
-        <v>5.212029123677755e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K19" t="n">
-        <v>9.667337679394851e-07</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002490930780240488</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0006512616318215104</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000000381051976</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0006789871877855829</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P19" t="n">
-        <v>167.3463964171752</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q19" t="n">
-        <v>251.4488283330811</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_6</t>
+          <t>model_10_4_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999992764447682</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6345841031965653</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999915167971613</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999993919226345</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999984928061935</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G20" t="n">
-        <v>4.295336416050278e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2169266614873412</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I20" t="n">
-        <v>1.26909156850258e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J20" t="n">
-        <v>5.296203180796734e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K20" t="n">
-        <v>8.993073483873628e-07</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002576497413032062</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0006553881610198858</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000000385896124</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0006832893918750263</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P20" t="n">
-        <v>167.3211315424409</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.4235634583467</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_5</t>
+          <t>model_10_4_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999992513957902</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6345762032884533</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999924192521878</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999993683361748</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999985886431355</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G21" t="n">
-        <v>4.444037969887323e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2169313512140548</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I21" t="n">
-        <v>1.134083825917398e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J21" t="n">
-        <v>5.501635401106955e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K21" t="n">
-        <v>8.421236830140467e-07</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002671289599205663</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0006666361803778222</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000000399255579</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00069501626270364</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P21" t="n">
-        <v>167.2530644702768</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q21" t="n">
-        <v>251.3554963861826</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_4</t>
+          <t>model_10_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999992061884073</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6345675267480138</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999932396228874</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999999328573931</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999998662465327</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G22" t="n">
-        <v>4.712408522680686e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2169365019832668</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I22" t="n">
-        <v>1.01135594144982e-06</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J22" t="n">
-        <v>5.847954691077394e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K22" t="n">
-        <v>7.980757052787795e-07</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002777095228722503</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0006864698480400057</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000000423366183</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0007156942906595548</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P22" t="n">
-        <v>167.1357930200107</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q22" t="n">
-        <v>251.2382249359165</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_3</t>
+          <t>model_10_4_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999991342468767</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6345580225541019</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999939233431557</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999992670739679</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F23" t="n">
-        <v>0.99999870329143</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G23" t="n">
-        <v>5.139484525747976e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2169421440833327</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I23" t="n">
-        <v>9.090710327540652e-07</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J23" t="n">
-        <v>6.383604130975015e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K23" t="n">
-        <v>7.737157229257834e-07</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002894313855708959</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0007169019825434978</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000000461734999</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0007474219841320635</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P23" t="n">
-        <v>166.9622857266795</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.0647176425854</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_2</t>
+          <t>model_10_4_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999990278116282</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6345473036532007</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999944104174707</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999991770472649</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999986986453157</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G24" t="n">
-        <v>5.771330138642068e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2169485072859401</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I24" t="n">
-        <v>8.362044612395552e-07</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J24" t="n">
-        <v>7.167714406407938e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K24" t="n">
-        <v>7.764879509401746e-07</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000302374495211454</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0007596927101560254</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000000518500465</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0007920344016080739</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P24" t="n">
-        <v>166.7303861407555</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.8328180566613</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_1</t>
+          <t>model_10_4_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.99999887639362</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C25" t="n">
-        <v>0.634535410189035</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999946063802431</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999999050050193</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999986305220111</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G25" t="n">
-        <v>6.670212844390476e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2169555677600397</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I25" t="n">
-        <v>8.068883283023468e-07</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J25" t="n">
-        <v>8.273827435096438e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K25" t="n">
-        <v>8.171355359059954e-07</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000316955555349053</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0008167137102063658</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000000599256736</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0008514829036802996</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P25" t="n">
-        <v>166.4408877616734</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.5433196775792</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_0</t>
+          <t>model_10_4_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999998667847977</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6345218641757793</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999944071939438</v>
+        <v>0.08576794401086896</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999988763546666</v>
+        <v>0.8684675715853228</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999984787791245</v>
+        <v>0.5425665041016101</v>
       </c>
       <c r="G26" t="n">
-        <v>7.90822986831762e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2169636092586656</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I26" t="n">
-        <v>8.366867025434697e-07</v>
+        <v>0.3292625222148807</v>
       </c>
       <c r="J26" t="n">
-        <v>9.786672431506483e-07</v>
+        <v>0.06166340905642786</v>
       </c>
       <c r="K26" t="n">
-        <v>9.076769728470589e-07</v>
+        <v>0.1954629656356543</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003330792673532896</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0008892822874834301</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000000710481079</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0009271408755297127</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P26" t="n">
-        <v>166.1003833565056</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.2028152724114</v>
+        <v>53.281961965732</v>
       </c>
     </row>
   </sheetData>
